--- a/수정사항_애드모어.xlsx
+++ b/수정사항_애드모어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162E01E-A111-E940-BB66-3002D203A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1BF852-71ED-B844-B5B1-32895E3696EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24300" yWindow="4040" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
+    <workbookView xWindow="41320" yWindow="500" windowWidth="27680" windowHeight="19220" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
   <sheets>
     <sheet name="나중에 수정할것" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -399,6 +399,22 @@
   </si>
   <si>
     <t>레이아웃, 디자인 수정해야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지 불일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근본상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제로 최근에 본상품이 아님</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,6 +687,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -691,9 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1187,7 +1203,7 @@
       <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1213,6 +1229,25 @@
       </c>
       <c r="D30" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1238,24 +1273,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1305,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="38">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1290,7 +1325,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="38">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +1343,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="57">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1328,7 +1363,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="38">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1381,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="38">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1364,7 +1399,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="38">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1415,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="57">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1398,7 +1433,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="57">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1449,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="57">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1432,7 +1467,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="57">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>

--- a/수정사항_애드모어.xlsx
+++ b/수정사항_애드모어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1BF852-71ED-B844-B5B1-32895E3696EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA3CAC3-22DD-B84C-B022-086AF5B73CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41320" yWindow="500" windowWidth="27680" windowHeight="19220" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
+    <workbookView xWindow="-21880" yWindow="3540" windowWidth="21860" windowHeight="18060" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
   <sheets>
     <sheet name="나중에 수정할것" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>실제로 최근에 본상품이 아님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제내역 클릭후 모달로 나오는 폼 수정하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1025,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1172,55 +1180,58 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
       <c r="C23" t="s">
         <v>71</v>
       </c>
       <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="D24" t="s">
+    <row r="25" spans="2:5">
+      <c r="D25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="38">
-      <c r="B26" t="s">
+    <row r="27" spans="2:5" ht="38">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="C27" t="s">
+    <row r="28" spans="2:5">
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -1228,25 +1239,33 @@
         <v>56</v>
       </c>
       <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>85</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
+    <row r="34" spans="2:4">
+      <c r="C34" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>88</v>
       </c>
     </row>

--- a/수정사항_애드모어.xlsx
+++ b/수정사항_애드모어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA3CAC3-22DD-B84C-B022-086AF5B73CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF52F2CC-6FA1-1940-A92C-FB88CC97A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21880" yWindow="3540" windowWidth="21860" windowHeight="18060" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
+    <workbookView minimized="1" xWindow="-21880" yWindow="3540" windowWidth="21860" windowHeight="18060" activeTab="2" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
   <sheets>
     <sheet name="나중에 수정할것" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -306,22 +306,6 @@
   </si>
   <si>
     <t>상품관리, 이용약관, 개인정보취급방침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품문의 경로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상세페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1035,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1130,24 +1114,24 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1155,10 +1139,10 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1166,7 +1150,7 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1174,10 +1158,10 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1185,10 +1169,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -1196,23 +1180,23 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="C24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="D25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="38">
@@ -1220,18 +1204,18 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="C28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -1239,7 +1223,7 @@
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -1247,26 +1231,26 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="C34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1553,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB980D-1D1F-BD4C-A4B6-12E35395DB9C}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1564,24 +1548,9 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
